--- a/selected_particles/7_particle_selection.xlsx
+++ b/selected_particles/7_particle_selection.xlsx
@@ -5,13 +5,15 @@
   <sheets>
     <sheet state="visible" name="7_particle_selection" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'7_particle_selection'!$A$1:$H$33</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>frame</t>
   </si>
@@ -26,6 +28,9 @@
   </si>
   <si>
     <t>size</t>
+  </si>
+  <si>
+    <t>actual_size</t>
   </si>
   <si>
     <t>video</t>
@@ -90,10 +95,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="0.43"/>
-    <col customWidth="1" min="3" max="3" width="2.14"/>
-    <col customWidth="1" min="4" max="4" width="3.57"/>
+    <col customWidth="1" min="3" max="4" width="12.0"/>
     <col customWidth="1" min="5" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="4.71"/>
+    <col customWidth="1" min="6" max="6" width="10.43"/>
+    <col customWidth="1" min="7" max="7" width="4.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -118,6 +123,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -136,9 +144,12 @@
         <v>11.3367244375678</v>
       </c>
       <c r="F2" s="1">
-        <v>7.0</v>
+        <v>11.5</v>
       </c>
       <c r="G2" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H2" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -159,13 +170,16 @@
         <v>15.7120412664872</v>
       </c>
       <c r="F3" s="1">
-        <v>7.0</v>
+        <v>25.0</v>
       </c>
       <c r="G3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>7.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4" hidden="1">
       <c r="A4" s="1">
         <v>0.0</v>
       </c>
@@ -181,14 +195,15 @@
       <c r="E4" s="1">
         <v>19.221966997533</v>
       </c>
-      <c r="F4" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>7.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" hidden="1">
       <c r="A5" s="1">
         <v>0.0</v>
       </c>
@@ -204,14 +219,15 @@
       <c r="E5" s="1">
         <v>9.73572998284291</v>
       </c>
-      <c r="F5" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>7.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" hidden="1">
       <c r="A6" s="1">
         <v>0.0</v>
       </c>
@@ -227,14 +243,15 @@
       <c r="E6" s="1">
         <v>11.8672870133816</v>
       </c>
-      <c r="F6" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>7.0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" hidden="1">
       <c r="A7" s="1">
         <v>0.0</v>
       </c>
@@ -250,10 +267,11 @@
       <c r="E7" s="1">
         <v>11.7479973886069</v>
       </c>
-      <c r="F7" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -274,13 +292,16 @@
         <v>14.9453779333701</v>
       </c>
       <c r="F8" s="1">
-        <v>7.0</v>
+        <v>22.5</v>
       </c>
       <c r="G8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>7.0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9" hidden="1">
       <c r="A9" s="1">
         <v>0.0</v>
       </c>
@@ -296,14 +317,15 @@
       <c r="E9" s="1">
         <v>14.2803292262138</v>
       </c>
-      <c r="F9" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>7.0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" hidden="1">
       <c r="A10" s="1">
         <v>0.0</v>
       </c>
@@ -319,10 +341,11 @@
       <c r="E10" s="1">
         <v>12.1330013259532</v>
       </c>
-      <c r="F10" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H10" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -343,13 +366,16 @@
         <v>9.64542420289434</v>
       </c>
       <c r="F11" s="1">
-        <v>7.0</v>
+        <v>12.5</v>
       </c>
       <c r="G11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>7.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12" hidden="1">
       <c r="A12" s="1">
         <v>0.0</v>
       </c>
@@ -365,10 +391,11 @@
       <c r="E12" s="1">
         <v>11.0536259742919</v>
       </c>
-      <c r="F12" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -389,9 +416,12 @@
         <v>18.2307997546313</v>
       </c>
       <c r="F13" s="1">
-        <v>7.0</v>
+        <v>20.5</v>
       </c>
       <c r="G13" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H13" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -412,9 +442,12 @@
         <v>11.2803276913751</v>
       </c>
       <c r="F14" s="1">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G14" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H14" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -435,13 +468,16 @@
         <v>10.848605332234</v>
       </c>
       <c r="F15" s="1">
-        <v>7.0</v>
+        <v>9.5</v>
       </c>
       <c r="G15" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>7.0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16" hidden="1">
       <c r="A16" s="1">
         <v>0.0</v>
       </c>
@@ -457,10 +493,11 @@
       <c r="E16" s="1">
         <v>11.3742778814255</v>
       </c>
-      <c r="F16" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H16" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -481,9 +518,12 @@
         <v>11.0662373240532</v>
       </c>
       <c r="F17" s="1">
-        <v>7.0</v>
+        <v>8.5</v>
       </c>
       <c r="G17" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H17" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -504,13 +544,16 @@
         <v>11.0845317957416</v>
       </c>
       <c r="F18" s="1">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="G18" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>7.0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19" hidden="1">
       <c r="A19" s="1">
         <v>0.0</v>
       </c>
@@ -526,10 +569,11 @@
       <c r="E19" s="1">
         <v>19.5283225208759</v>
       </c>
-      <c r="F19" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H19" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -550,13 +594,16 @@
         <v>9.63424366864148</v>
       </c>
       <c r="F20" s="1">
-        <v>7.0</v>
+        <v>11.5</v>
       </c>
       <c r="G20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>7.0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21" hidden="1">
       <c r="A21" s="1">
         <v>0.0</v>
       </c>
@@ -572,10 +619,11 @@
       <c r="E21" s="1">
         <v>14.5847573460227</v>
       </c>
-      <c r="F21" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H21" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -596,9 +644,12 @@
         <v>9.7504210642851</v>
       </c>
       <c r="F22" s="1">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="G22" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H22" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -619,13 +670,16 @@
         <v>10.4939687277949</v>
       </c>
       <c r="F23" s="1">
-        <v>7.0</v>
+        <v>10.5</v>
       </c>
       <c r="G23" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>7.0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24" hidden="1">
       <c r="A24" s="1">
         <v>0.0</v>
       </c>
@@ -641,14 +695,15 @@
       <c r="E24" s="1">
         <v>18.7510983911337</v>
       </c>
-      <c r="F24" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>7.0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" hidden="1">
       <c r="A25" s="1">
         <v>0.0</v>
       </c>
@@ -664,10 +719,11 @@
       <c r="E25" s="1">
         <v>13.8833912790774</v>
       </c>
-      <c r="F25" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H25" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -688,13 +744,16 @@
         <v>12.5374886412544</v>
       </c>
       <c r="F26" s="1">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="G26" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>7.0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27" hidden="1">
       <c r="A27" s="1">
         <v>0.0</v>
       </c>
@@ -710,14 +769,15 @@
       <c r="E27" s="1">
         <v>12.235755191032</v>
       </c>
-      <c r="F27" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>7.0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" hidden="1">
       <c r="A28" s="1">
         <v>0.0</v>
       </c>
@@ -733,14 +793,15 @@
       <c r="E28" s="1">
         <v>11.978633943903</v>
       </c>
-      <c r="F28" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>7.0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" hidden="1">
       <c r="A29" s="1">
         <v>0.0</v>
       </c>
@@ -756,10 +817,11 @@
       <c r="E29" s="1">
         <v>13.4695865802453</v>
       </c>
-      <c r="F29" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H29" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -780,13 +842,16 @@
         <v>21.0244017319333</v>
       </c>
       <c r="F30" s="1">
-        <v>7.0</v>
+        <v>35.0</v>
       </c>
       <c r="G30" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>7.0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31" hidden="1">
       <c r="A31" s="1">
         <v>0.0</v>
       </c>
@@ -802,10 +867,11 @@
       <c r="E31" s="1">
         <v>13.4759186760647</v>
       </c>
-      <c r="F31" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H31" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -826,13 +892,16 @@
         <v>11.6381714636241</v>
       </c>
       <c r="F32" s="1">
-        <v>7.0</v>
+        <v>14.5</v>
       </c>
       <c r="G32" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>7.0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33" hidden="1">
       <c r="A33" s="1">
         <v>0.0</v>
       </c>
@@ -848,14 +917,22 @@
       <c r="E33" s="1">
         <v>17.3929299390169</v>
       </c>
-      <c r="F33" s="1">
-        <v>7.0</v>
-      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H33" s="1">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$H$33">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>